--- a/book_keep_AI/Fake Transactions/dummy_data.xlsx
+++ b/book_keep_AI/Fake Transactions/dummy_data.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\felix\bookkeeper_ai\Book_keeper_AI\book_keep_AI\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\felix\bookkeeper_ai\Book_keeper_AI\book_keep_AI\Fake Transactions\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D70D25B-98F5-49B4-B078-A976391B9404}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D6EC7FA-5EB9-4A8E-B53B-18F8C4D6C772}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3525" yWindow="3180" windowWidth="21570" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="63">
   <si>
     <t>Memo</t>
   </si>
@@ -222,6 +222,9 @@
   </si>
   <si>
     <t>Paychex Payroll Processing Inv</t>
+  </si>
+  <si>
+    <t>Date</t>
   </si>
 </sst>
 </file>
@@ -274,10 +277,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -559,935 +563,1281 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B115"/>
+  <dimension ref="A1:C115"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" topLeftCell="A100" workbookViewId="0">
+      <selection activeCell="B37" sqref="B37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="44.28515625" customWidth="1"/>
-    <col min="2" max="2" width="9.140625" style="1"/>
+    <col min="1" max="1" width="21.5703125" customWidth="1"/>
+    <col min="2" max="2" width="44.28515625" customWidth="1"/>
+    <col min="3" max="3" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="3">
+        <v>44562</v>
+      </c>
+      <c r="B2" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="1">
+      <c r="C2" s="1">
         <v>120</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="3">
+        <v>44563</v>
+      </c>
+      <c r="B3" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="1">
+      <c r="C3" s="1">
         <v>25</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="3">
+        <v>44564</v>
+      </c>
+      <c r="B4" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="1">
+      <c r="C4" s="1">
         <v>800</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="3">
+        <v>44565</v>
+      </c>
+      <c r="B5" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="1">
+      <c r="C5" s="1">
         <v>200</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" s="3">
+        <v>44566</v>
+      </c>
+      <c r="B6" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="1">
+      <c r="C6" s="1">
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" s="3">
+        <v>44567</v>
+      </c>
+      <c r="B7" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="1">
+      <c r="C7" s="1">
         <v>63.12</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" s="3">
+        <v>44568</v>
+      </c>
+      <c r="B8" t="s">
         <v>8</v>
       </c>
-      <c r="B8" s="1">
+      <c r="C8" s="1">
         <v>96.21</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" s="3">
+        <v>44569</v>
+      </c>
+      <c r="B9" t="s">
         <v>9</v>
       </c>
-      <c r="B9" s="1">
+      <c r="C9" s="1">
         <v>900.42</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" s="3">
+        <v>44570</v>
+      </c>
+      <c r="B10" t="s">
         <v>10</v>
       </c>
-      <c r="B10" s="1">
+      <c r="C10" s="1">
         <v>964.23</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" s="3">
+        <v>44571</v>
+      </c>
+      <c r="B11" t="s">
         <v>11</v>
       </c>
-      <c r="B11" s="1">
+      <c r="C11" s="1">
         <v>86.23</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" s="3">
+        <v>44572</v>
+      </c>
+      <c r="B12" t="s">
         <v>12</v>
       </c>
-      <c r="B12" s="1">
+      <c r="C12" s="1">
         <v>-743.4</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" s="3">
+        <v>44573</v>
+      </c>
+      <c r="B13" t="s">
         <v>13</v>
       </c>
-      <c r="B13" s="2">
+      <c r="C13" s="2">
         <v>-280.5</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" s="3">
+        <v>44574</v>
+      </c>
+      <c r="B14" t="s">
         <v>14</v>
       </c>
-      <c r="B14" s="2">
+      <c r="C14" s="2">
         <v>-128.5</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" s="3">
+        <v>44575</v>
+      </c>
+      <c r="B15" t="s">
         <v>15</v>
       </c>
-      <c r="B15" s="2">
+      <c r="C15" s="2">
         <v>-101.65</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" s="3">
+        <v>44576</v>
+      </c>
+      <c r="B16" t="s">
         <v>16</v>
       </c>
-      <c r="B16" s="2">
+      <c r="C16" s="2">
         <v>-835.26</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" s="3">
+        <v>44577</v>
+      </c>
+      <c r="B17" t="s">
         <v>17</v>
       </c>
-      <c r="B17" s="2">
+      <c r="C17" s="2">
         <v>-532.20000000000005</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" s="3">
+        <v>44578</v>
+      </c>
+      <c r="B18" t="s">
         <v>18</v>
       </c>
-      <c r="B18" s="2">
+      <c r="C18" s="2">
         <v>-996.73</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" s="3">
+        <v>44579</v>
+      </c>
+      <c r="B19" t="s">
         <v>19</v>
       </c>
-      <c r="B19" s="2">
+      <c r="C19" s="2">
         <v>-50.62</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" s="3">
+        <v>44580</v>
+      </c>
+      <c r="B20" t="s">
         <v>20</v>
       </c>
-      <c r="B20" s="2">
+      <c r="C20" s="2">
         <v>-945.28</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" s="3">
+        <v>44581</v>
+      </c>
+      <c r="B21" t="s">
         <v>21</v>
       </c>
-      <c r="B21" s="2">
+      <c r="C21" s="2">
         <v>-867.24</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" s="3">
+        <v>44582</v>
+      </c>
+      <c r="B22" t="s">
         <v>22</v>
       </c>
-      <c r="B22" s="2">
+      <c r="C22" s="2">
         <v>-89.62</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23" s="3">
+        <v>44583</v>
+      </c>
+      <c r="B23" t="s">
         <v>23</v>
       </c>
-      <c r="B23" s="2">
+      <c r="C23" s="2">
         <v>-166.95</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24" s="3">
+        <v>44584</v>
+      </c>
+      <c r="B24" t="s">
         <v>24</v>
       </c>
-      <c r="B24" s="2">
+      <c r="C24" s="2">
         <v>-221.4</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25" s="3">
+        <v>44585</v>
+      </c>
+      <c r="B25" t="s">
         <v>25</v>
       </c>
-      <c r="B25" s="2">
+      <c r="C25" s="2">
         <v>-164.31</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26" s="3">
+        <v>44586</v>
+      </c>
+      <c r="B26" t="s">
         <v>26</v>
       </c>
-      <c r="B26" s="2">
+      <c r="C26" s="2">
         <v>-870.99</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27" s="3">
+        <v>44587</v>
+      </c>
+      <c r="B27" t="s">
         <v>25</v>
       </c>
-      <c r="B27" s="2">
+      <c r="C27" s="2">
         <v>-93.85</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28" s="3">
+        <v>44588</v>
+      </c>
+      <c r="B28" t="s">
         <v>26</v>
       </c>
-      <c r="B28" s="2">
+      <c r="C28" s="2">
         <v>-309.42</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A29" s="3">
+        <v>44589</v>
+      </c>
+      <c r="B29" t="s">
         <v>25</v>
       </c>
-      <c r="B29" s="2">
+      <c r="C29" s="2">
         <v>-715.39</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A30" s="3">
+        <v>44590</v>
+      </c>
+      <c r="B30" t="s">
         <v>25</v>
       </c>
-      <c r="B30" s="2">
+      <c r="C30" s="2">
         <v>-863.93</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A31" s="3">
+        <v>44591</v>
+      </c>
+      <c r="B31" t="s">
         <v>27</v>
       </c>
-      <c r="B31" s="2">
+      <c r="C31" s="2">
         <v>-460.75</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A32" s="3">
+        <v>44592</v>
+      </c>
+      <c r="B32" t="s">
         <v>28</v>
       </c>
-      <c r="B32" s="2">
+      <c r="C32" s="2">
         <v>-681.48</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A33" s="3">
+        <v>44593</v>
+      </c>
+      <c r="B33" t="s">
         <v>29</v>
       </c>
-      <c r="B33" s="2">
+      <c r="C33" s="2">
         <v>-751.8</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A34" s="3">
+        <v>44594</v>
+      </c>
+      <c r="B34" t="s">
         <v>30</v>
       </c>
-      <c r="B34" s="2">
+      <c r="C34" s="2">
         <v>-365.96</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A35" s="3">
+        <v>44595</v>
+      </c>
+      <c r="B35" t="s">
         <v>31</v>
       </c>
-      <c r="B35" s="2">
+      <c r="C35" s="2">
         <v>-829.7</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A36" s="3">
+        <v>44596</v>
+      </c>
+      <c r="B36" t="s">
         <v>32</v>
       </c>
-      <c r="B36" s="2">
+      <c r="C36" s="2">
         <v>-116.87</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A37" s="3">
+        <v>44597</v>
+      </c>
+      <c r="B37" t="s">
         <v>33</v>
       </c>
-      <c r="B37" s="2">
+      <c r="C37" s="2">
         <v>-681.33</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A38" t="s">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A38" s="3">
+        <v>44598</v>
+      </c>
+      <c r="B38" t="s">
         <v>37</v>
       </c>
-      <c r="B38" s="2">
+      <c r="C38" s="2">
         <v>-120.12</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A39" t="s">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A39" s="3">
+        <v>44599</v>
+      </c>
+      <c r="B39" t="s">
         <v>38</v>
       </c>
-      <c r="B39" s="2">
+      <c r="C39" s="2">
         <v>-409.59</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A40" t="s">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A40" s="3">
+        <v>44600</v>
+      </c>
+      <c r="B40" t="s">
         <v>37</v>
       </c>
-      <c r="B40" s="2">
+      <c r="C40" s="2">
         <v>-1000.79</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A41" t="s">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A41" s="3">
+        <v>44601</v>
+      </c>
+      <c r="B41" t="s">
         <v>38</v>
       </c>
-      <c r="B41" s="2">
+      <c r="C41" s="2">
         <v>-813.13</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A42" t="s">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A42" s="3">
+        <v>44602</v>
+      </c>
+      <c r="B42" t="s">
         <v>39</v>
       </c>
-      <c r="B42" s="2">
+      <c r="C42" s="2">
         <v>-923.13</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A43" t="s">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A43" s="3">
+        <v>44603</v>
+      </c>
+      <c r="B43" t="s">
         <v>40</v>
       </c>
-      <c r="B43" s="2">
+      <c r="C43" s="2">
         <v>-364.7</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A44" t="s">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A44" s="3">
+        <v>44604</v>
+      </c>
+      <c r="B44" t="s">
         <v>37</v>
       </c>
-      <c r="B44" s="2">
+      <c r="C44" s="2">
         <v>-86.2</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A45" t="s">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A45" s="3">
+        <v>44605</v>
+      </c>
+      <c r="B45" t="s">
         <v>38</v>
       </c>
-      <c r="B45" s="2">
+      <c r="C45" s="2">
         <v>-626.11</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A46" t="s">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A46" s="3">
+        <v>44606</v>
+      </c>
+      <c r="B46" t="s">
         <v>39</v>
       </c>
-      <c r="B46" s="2">
+      <c r="C46" s="2">
         <v>-489.97</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A47" t="s">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A47" s="3">
+        <v>44607</v>
+      </c>
+      <c r="B47" t="s">
         <v>40</v>
       </c>
-      <c r="B47" s="2">
+      <c r="C47" s="2">
         <v>-308.2</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A48" t="s">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A48" s="3">
+        <v>44608</v>
+      </c>
+      <c r="B48" t="s">
         <v>35</v>
       </c>
-      <c r="B48" s="2">
+      <c r="C48" s="2">
         <v>-254.69</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A49" t="s">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A49" s="3">
+        <v>44609</v>
+      </c>
+      <c r="B49" t="s">
         <v>36</v>
       </c>
-      <c r="B49" s="2">
+      <c r="C49" s="2">
         <v>-267.26</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A50" t="s">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A50" s="3">
+        <v>44610</v>
+      </c>
+      <c r="B50" t="s">
         <v>37</v>
       </c>
-      <c r="B50" s="2">
+      <c r="C50" s="2">
         <v>-585.51</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A51" t="s">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A51" s="3">
+        <v>44611</v>
+      </c>
+      <c r="B51" t="s">
         <v>38</v>
       </c>
-      <c r="B51" s="2">
+      <c r="C51" s="2">
         <v>-802.5</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A52" t="s">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A52" s="3">
+        <v>44612</v>
+      </c>
+      <c r="B52" t="s">
         <v>39</v>
       </c>
-      <c r="B52" s="2">
+      <c r="C52" s="2">
         <v>-754.92</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A53" t="s">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A53" s="3">
+        <v>44613</v>
+      </c>
+      <c r="B53" t="s">
         <v>40</v>
       </c>
-      <c r="B53" s="2">
+      <c r="C53" s="2">
         <v>-603.54</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A54" t="s">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A54" s="3">
+        <v>44614</v>
+      </c>
+      <c r="B54" t="s">
         <v>41</v>
       </c>
-      <c r="B54" s="2">
+      <c r="C54" s="2">
         <v>-706.9</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A55" t="s">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A55" s="3">
+        <v>44615</v>
+      </c>
+      <c r="B55" t="s">
         <v>42</v>
       </c>
-      <c r="B55" s="2">
+      <c r="C55" s="2">
         <v>-176.73</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A56" t="s">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A56" s="3">
+        <v>44616</v>
+      </c>
+      <c r="B56" t="s">
         <v>43</v>
       </c>
-      <c r="B56" s="2">
+      <c r="C56" s="2">
         <v>-203.9</v>
       </c>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A57" t="s">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A57" s="3">
+        <v>44617</v>
+      </c>
+      <c r="B57" t="s">
         <v>41</v>
       </c>
-      <c r="B57" s="2">
+      <c r="C57" s="2">
         <v>-929.31</v>
       </c>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A58" t="s">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A58" s="3">
+        <v>44618</v>
+      </c>
+      <c r="B58" t="s">
         <v>42</v>
       </c>
-      <c r="B58" s="2">
+      <c r="C58" s="2">
         <v>-115.25</v>
       </c>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A59" t="s">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A59" s="3">
+        <v>44619</v>
+      </c>
+      <c r="B59" t="s">
         <v>43</v>
       </c>
-      <c r="B59" s="2">
+      <c r="C59" s="2">
         <v>-647.87</v>
       </c>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A60" t="s">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A60" s="3">
+        <v>44620</v>
+      </c>
+      <c r="B60" t="s">
         <v>34</v>
       </c>
-      <c r="B60" s="2">
+      <c r="C60" s="2">
         <v>-881.13</v>
       </c>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A61" t="s">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A61" s="3">
+        <v>44621</v>
+      </c>
+      <c r="B61" t="s">
         <v>37</v>
       </c>
-      <c r="B61" s="2">
+      <c r="C61" s="2">
         <v>-68.86</v>
       </c>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A62" t="s">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A62" s="3">
+        <v>44622</v>
+      </c>
+      <c r="B62" t="s">
         <v>38</v>
       </c>
-      <c r="B62" s="2">
+      <c r="C62" s="2">
         <v>-215.17</v>
       </c>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A63" t="s">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A63" s="3">
+        <v>44623</v>
+      </c>
+      <c r="B63" t="s">
         <v>39</v>
       </c>
-      <c r="B63" s="2">
+      <c r="C63" s="2">
         <v>-354.22</v>
       </c>
     </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A64" t="s">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A64" s="3">
+        <v>44624</v>
+      </c>
+      <c r="B64" t="s">
         <v>40</v>
       </c>
-      <c r="B64" s="2">
+      <c r="C64" s="2">
         <v>-443.7</v>
       </c>
     </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A65" t="s">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A65" s="3">
+        <v>44625</v>
+      </c>
+      <c r="B65" t="s">
         <v>35</v>
       </c>
-      <c r="B65" s="2">
+      <c r="C65" s="2">
         <v>-155.25</v>
       </c>
     </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A66" t="s">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A66" s="3">
+        <v>44626</v>
+      </c>
+      <c r="B66" t="s">
         <v>36</v>
       </c>
-      <c r="B66" s="2">
+      <c r="C66" s="2">
         <v>-813.94</v>
       </c>
     </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A67" t="s">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A67" s="3">
+        <v>44627</v>
+      </c>
+      <c r="B67" t="s">
         <v>37</v>
       </c>
-      <c r="B67" s="2">
+      <c r="C67" s="2">
         <v>-357.76</v>
       </c>
     </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A68" t="s">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A68" s="3">
+        <v>44628</v>
+      </c>
+      <c r="B68" t="s">
         <v>38</v>
       </c>
-      <c r="B68" s="2">
+      <c r="C68" s="2">
         <v>-757.1</v>
       </c>
     </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A69" t="s">
+    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A69" s="3">
+        <v>44629</v>
+      </c>
+      <c r="B69" t="s">
         <v>39</v>
       </c>
-      <c r="B69" s="2">
+      <c r="C69" s="2">
         <v>-424.76</v>
       </c>
     </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A70" t="s">
+    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A70" s="3">
+        <v>44630</v>
+      </c>
+      <c r="B70" t="s">
         <v>40</v>
       </c>
-      <c r="B70" s="2">
+      <c r="C70" s="2">
         <v>-533.14</v>
       </c>
     </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A71" t="s">
+    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A71" s="3">
+        <v>44631</v>
+      </c>
+      <c r="B71" t="s">
         <v>41</v>
       </c>
-      <c r="B71" s="2">
+      <c r="C71" s="2">
         <v>-369.69</v>
       </c>
     </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A72" t="s">
+    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A72" s="3">
+        <v>44632</v>
+      </c>
+      <c r="B72" t="s">
         <v>42</v>
       </c>
-      <c r="B72" s="2">
+      <c r="C72" s="2">
         <v>-659.92</v>
       </c>
     </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A73" t="s">
+    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A73" s="3">
+        <v>44633</v>
+      </c>
+      <c r="B73" t="s">
         <v>43</v>
       </c>
-      <c r="B73" s="2">
+      <c r="C73" s="2">
         <v>-309.43</v>
       </c>
     </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A74" t="s">
+    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A74" s="3">
+        <v>44634</v>
+      </c>
+      <c r="B74" t="s">
         <v>35</v>
       </c>
-      <c r="B74" s="2">
+      <c r="C74" s="2">
         <v>-103.88</v>
       </c>
     </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A75" t="s">
+    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A75" s="3">
+        <v>44635</v>
+      </c>
+      <c r="B75" t="s">
         <v>36</v>
       </c>
-      <c r="B75" s="2">
+      <c r="C75" s="2">
         <v>-513.97</v>
       </c>
     </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A76" t="s">
+    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A76" s="3">
+        <v>44636</v>
+      </c>
+      <c r="B76" t="s">
         <v>37</v>
       </c>
-      <c r="B76" s="2">
+      <c r="C76" s="2">
         <v>-680.31</v>
       </c>
     </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A77" t="s">
+    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A77" s="3">
+        <v>44637</v>
+      </c>
+      <c r="B77" t="s">
         <v>38</v>
       </c>
-      <c r="B77" s="2">
+      <c r="C77" s="2">
         <v>-147.69999999999999</v>
       </c>
     </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A78" t="s">
+    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A78" s="3">
+        <v>44638</v>
+      </c>
+      <c r="B78" t="s">
         <v>39</v>
       </c>
-      <c r="B78" s="2">
+      <c r="C78" s="2">
         <v>-104.74</v>
       </c>
     </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A79" t="s">
+    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A79" s="3">
+        <v>44639</v>
+      </c>
+      <c r="B79" t="s">
         <v>40</v>
       </c>
-      <c r="B79" s="2">
+      <c r="C79" s="2">
         <v>-506.27</v>
       </c>
     </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A80" t="s">
+    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A80" s="3">
+        <v>44640</v>
+      </c>
+      <c r="B80" t="s">
         <v>41</v>
       </c>
-      <c r="B80" s="2">
+      <c r="C80" s="2">
         <v>-825.29</v>
       </c>
     </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A81" t="s">
+    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A81" s="3">
+        <v>44641</v>
+      </c>
+      <c r="B81" t="s">
         <v>42</v>
       </c>
-      <c r="B81" s="2">
+      <c r="C81" s="2">
         <v>-759.94</v>
       </c>
     </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A82" t="s">
+    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A82" s="3">
+        <v>44642</v>
+      </c>
+      <c r="B82" t="s">
         <v>43</v>
       </c>
-      <c r="B82" s="2">
+      <c r="C82" s="2">
         <v>-788.98</v>
       </c>
     </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A83" t="s">
+    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A83" s="3">
+        <v>44643</v>
+      </c>
+      <c r="B83" t="s">
         <v>44</v>
       </c>
-      <c r="B83" s="2">
+      <c r="C83" s="2">
         <v>-678.24</v>
       </c>
     </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A84" t="s">
+    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A84" s="3">
+        <v>44644</v>
+      </c>
+      <c r="B84" t="s">
         <v>45</v>
       </c>
-      <c r="B84" s="2">
+      <c r="C84" s="2">
         <v>-722.49</v>
       </c>
     </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A85" t="s">
+    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A85" s="3">
+        <v>44645</v>
+      </c>
+      <c r="B85" t="s">
         <v>46</v>
       </c>
-      <c r="B85" s="2">
+      <c r="C85" s="2">
         <v>-948.38</v>
       </c>
     </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A86" t="s">
+    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A86" s="3">
+        <v>44646</v>
+      </c>
+      <c r="B86" t="s">
         <v>47</v>
       </c>
-      <c r="B86" s="2">
+      <c r="C86" s="2">
         <v>-532.88</v>
       </c>
     </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A87" t="s">
+    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A87" s="3">
+        <v>44647</v>
+      </c>
+      <c r="B87" t="s">
         <v>48</v>
       </c>
-      <c r="B87" s="2">
+      <c r="C87" s="2">
         <v>-860.52</v>
       </c>
     </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A88" t="s">
+    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A88" s="3">
+        <v>44648</v>
+      </c>
+      <c r="B88" t="s">
         <v>49</v>
       </c>
-      <c r="B88" s="2">
+      <c r="C88" s="2">
         <v>-235.16</v>
       </c>
     </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A89" t="s">
+    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A89" s="3">
+        <v>44649</v>
+      </c>
+      <c r="B89" t="s">
         <v>50</v>
       </c>
-      <c r="B89" s="2">
+      <c r="C89" s="2">
         <v>-682.41</v>
       </c>
     </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A90" t="s">
+    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A90" s="3">
+        <v>44650</v>
+      </c>
+      <c r="B90" t="s">
         <v>51</v>
       </c>
-      <c r="B90" s="2">
+      <c r="C90" s="2">
         <v>-848.88</v>
       </c>
     </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A91" t="s">
+    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A91" s="3">
+        <v>44651</v>
+      </c>
+      <c r="B91" t="s">
         <v>52</v>
       </c>
-      <c r="B91" s="2">
+      <c r="C91" s="2">
         <v>-297.89999999999998</v>
       </c>
     </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A92" t="s">
+    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A92" s="3">
+        <v>44652</v>
+      </c>
+      <c r="B92" t="s">
         <v>53</v>
       </c>
-      <c r="B92" s="2">
+      <c r="C92" s="2">
         <v>-638.98</v>
       </c>
     </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A93" t="s">
+    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A93" s="3">
+        <v>44653</v>
+      </c>
+      <c r="B93" t="s">
         <v>54</v>
       </c>
-      <c r="B93" s="2">
+      <c r="C93" s="2">
         <v>-361.62</v>
       </c>
     </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A94" t="s">
+    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A94" s="3">
+        <v>44654</v>
+      </c>
+      <c r="B94" t="s">
         <v>51</v>
       </c>
-      <c r="B94" s="2">
+      <c r="C94" s="2">
         <v>-608.66</v>
       </c>
     </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A95" t="s">
+    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A95" s="3">
+        <v>44655</v>
+      </c>
+      <c r="B95" t="s">
         <v>51</v>
       </c>
-      <c r="B95" s="2">
+      <c r="C95" s="2">
         <v>-466.7</v>
       </c>
     </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A96" t="s">
+    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A96" s="3">
+        <v>44656</v>
+      </c>
+      <c r="B96" t="s">
         <v>52</v>
       </c>
-      <c r="B96" s="2">
+      <c r="C96" s="2">
         <v>-143.13</v>
       </c>
     </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A97" t="s">
+    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A97" s="3">
+        <v>44657</v>
+      </c>
+      <c r="B97" t="s">
         <v>53</v>
       </c>
-      <c r="B97" s="2">
+      <c r="C97" s="2">
         <v>-169.24</v>
       </c>
     </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A98" t="s">
+    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A98" s="3">
+        <v>44658</v>
+      </c>
+      <c r="B98" t="s">
         <v>54</v>
       </c>
-      <c r="B98" s="2">
+      <c r="C98" s="2">
         <v>-573.32000000000005</v>
       </c>
     </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A99" t="s">
+    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A99" s="3">
+        <v>44659</v>
+      </c>
+      <c r="B99" t="s">
         <v>51</v>
       </c>
-      <c r="B99" s="2">
+      <c r="C99" s="2">
         <v>-321.54000000000002</v>
       </c>
     </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A100" t="s">
+    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A100" s="3">
+        <v>44660</v>
+      </c>
+      <c r="B100" t="s">
         <v>52</v>
       </c>
-      <c r="B100" s="2">
+      <c r="C100" s="2">
         <v>-485.96</v>
       </c>
     </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A101" t="s">
+    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A101" s="3">
+        <v>44661</v>
+      </c>
+      <c r="B101" t="s">
         <v>53</v>
       </c>
-      <c r="B101" s="2">
+      <c r="C101" s="2">
         <v>-544.41999999999996</v>
       </c>
     </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A102" t="s">
+    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A102" s="3">
+        <v>44662</v>
+      </c>
+      <c r="B102" t="s">
         <v>54</v>
       </c>
-      <c r="B102" s="2">
+      <c r="C102" s="2">
         <v>-275.89999999999998</v>
       </c>
     </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A103" t="s">
+    <row r="103" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A103" s="3">
+        <v>44663</v>
+      </c>
+      <c r="B103" t="s">
         <v>54</v>
       </c>
-      <c r="B103" s="2">
+      <c r="C103" s="2">
         <v>-103.53</v>
       </c>
     </row>
-    <row r="104" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A104" t="s">
+    <row r="104" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A104" s="3">
+        <v>44664</v>
+      </c>
+      <c r="B104" t="s">
         <v>51</v>
       </c>
-      <c r="B104" s="2">
+      <c r="C104" s="2">
         <v>-975.26</v>
       </c>
     </row>
-    <row r="105" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A105" t="s">
+    <row r="105" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A105" s="3">
+        <v>44665</v>
+      </c>
+      <c r="B105" t="s">
         <v>52</v>
       </c>
-      <c r="B105" s="2">
+      <c r="C105" s="2">
         <v>-118.69</v>
       </c>
     </row>
-    <row r="106" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A106" t="s">
+    <row r="106" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A106" s="3">
+        <v>44666</v>
+      </c>
+      <c r="B106" t="s">
         <v>53</v>
       </c>
-      <c r="B106" s="2">
+      <c r="C106" s="2">
         <v>-103.45</v>
       </c>
     </row>
-    <row r="107" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A107" t="s">
+    <row r="107" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A107" s="3">
+        <v>44667</v>
+      </c>
+      <c r="B107" t="s">
         <v>54</v>
       </c>
-      <c r="B107" s="2">
+      <c r="C107" s="2">
         <v>-483.54</v>
       </c>
     </row>
-    <row r="108" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A108" t="s">
+    <row r="108" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A108" s="3">
+        <v>44668</v>
+      </c>
+      <c r="B108" t="s">
         <v>54</v>
       </c>
-      <c r="B108" s="2">
+      <c r="C108" s="2">
         <v>-490.24</v>
       </c>
     </row>
-    <row r="109" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A109" t="s">
+    <row r="109" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A109" s="3">
+        <v>44669</v>
+      </c>
+      <c r="B109" t="s">
         <v>55</v>
       </c>
-      <c r="B109" s="2">
+      <c r="C109" s="2">
         <v>-336.58</v>
       </c>
     </row>
-    <row r="110" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A110" t="s">
+    <row r="110" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A110" s="3">
+        <v>44670</v>
+      </c>
+      <c r="B110" t="s">
         <v>56</v>
       </c>
-      <c r="B110" s="2">
+      <c r="C110" s="2">
         <v>-180.21</v>
       </c>
     </row>
-    <row r="111" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A111" t="s">
+    <row r="111" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A111" s="3">
+        <v>44671</v>
+      </c>
+      <c r="B111" t="s">
         <v>57</v>
       </c>
-      <c r="B111" s="2">
+      <c r="C111" s="2">
         <v>-716.72</v>
       </c>
     </row>
-    <row r="112" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A112" t="s">
+    <row r="112" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A112" s="3">
+        <v>44672</v>
+      </c>
+      <c r="B112" t="s">
         <v>58</v>
       </c>
-      <c r="B112" s="2">
+      <c r="C112" s="2">
         <v>-517.88</v>
       </c>
     </row>
-    <row r="113" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A113" t="s">
+    <row r="113" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A113" s="3">
+        <v>44673</v>
+      </c>
+      <c r="B113" t="s">
         <v>59</v>
       </c>
-      <c r="B113" s="2">
+      <c r="C113" s="2">
         <v>-325.49</v>
       </c>
     </row>
-    <row r="114" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A114" t="s">
+    <row r="114" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A114" s="3">
+        <v>44674</v>
+      </c>
+      <c r="B114" t="s">
         <v>60</v>
       </c>
-      <c r="B114" s="2">
+      <c r="C114" s="2">
         <v>-334.45</v>
       </c>
     </row>
-    <row r="115" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A115" t="s">
+    <row r="115" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A115" s="3">
+        <v>44675</v>
+      </c>
+      <c r="B115" t="s">
         <v>61</v>
       </c>
-      <c r="B115" s="2">
+      <c r="C115" s="2">
         <v>-120.81</v>
       </c>
     </row>
